--- a/kma_mm/kma_be/src/exports/phulucbang/phu_luc_bang_diem_sinh_vien_6.xlsx
+++ b/kma_mm/kma_be/src/exports/phulucbang/phu_luc_bang_diem_sinh_vien_6.xlsx
@@ -49,7 +49,7 @@
     <t>Tiếng Anh 1</t>
   </si>
   <si>
-    <t>A</t>
+    <t>A+</t>
   </si>
   <si>
     <t/>
@@ -64,7 +64,7 @@
     <t>lập trình cb</t>
   </si>
   <si>
-    <t>D</t>
+    <t>F</t>
   </si>
   <si>
     <t>HỌC KỲ 2</t>
@@ -650,10 +650,10 @@
         <v>3</v>
       </c>
       <c r="H7" s="5">
-        <v>8.86</v>
+        <v>9.55</v>
       </c>
       <c r="I7" s="5">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>12</v>
@@ -706,10 +706,10 @@
         <v>3</v>
       </c>
       <c r="H9" s="5">
-        <v>4.2</v>
+        <v>3.48</v>
       </c>
       <c r="I9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>17</v>
